--- a/examples/test_simple.xlsx
+++ b/examples/test_simple.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\dev_booster\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0A0795-F65A-41EF-B610-79C828AD0DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC045AC-4208-467B-BF99-ED39B6F7068D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="4820" windowWidth="28800" windowHeight="15370" xr2:uid="{A1F61856-2248-4C57-989C-70086E128F3E}"/>
+    <workbookView xWindow="12390" yWindow="5630" windowWidth="28800" windowHeight="15370" xr2:uid="{A1F61856-2248-4C57-989C-70086E128F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="TB_NOTICE" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,10 @@
   </si>
   <si>
     <t>비밀글여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3C548F-E939-4500-992B-0475BB7F7310}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -518,12 +522,12 @@
     <col min="1" max="1" width="26.4140625" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="4" max="5" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -537,13 +541,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -556,11 +563,14 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -573,11 +583,14 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -587,11 +600,14 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -605,13 +621,16 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -628,6 +647,9 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
         <v>21</v>
       </c>
     </row>
